--- a/backend/docs/14-23.xlsx
+++ b/backend/docs/14-23.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
   <si>
     <t>Утверждаю</t>
   </si>
@@ -87,15 +87,6 @@
   </si>
   <si>
     <t>Наименование МЦ</t>
-  </si>
-  <si>
-    <t>ФИО и подписи, ответственных за установку материальной ценности:</t>
-  </si>
-  <si>
-    <t>(подпись)</t>
-  </si>
-  <si>
-    <t>(ФИО)</t>
   </si>
 </sst>
 </file>
@@ -209,7 +200,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -222,11 +213,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -236,24 +229,31 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -536,8 +536,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I49"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScale="85" zoomScaleNormal="100" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:E11"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A21" zoomScale="85" zoomScaleNormal="100" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -551,7 +551,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="7"/>
+      <c r="A1" s="6"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -564,7 +564,7 @@
       <c r="I1" s="11"/>
     </row>
     <row r="2" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="7"/>
+      <c r="A2" s="6"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -577,7 +577,7 @@
       <c r="I2" s="11"/>
     </row>
     <row r="3" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="7"/>
+      <c r="A3" s="6"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -625,43 +625,43 @@
       <c r="I6" s="2"/>
     </row>
     <row r="7" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
     </row>
     <row r="8" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="16"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="16"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
     </row>
     <row r="9" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A9" s="16" t="s">
+      <c r="A9" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="16"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="16"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
     </row>
     <row r="10" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
@@ -780,11 +780,11 @@
       <c r="A19" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="17" t="s">
+      <c r="B19" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
       <c r="E19" s="8" t="s">
         <v>16</v>
       </c>
@@ -797,16 +797,16 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A20" s="6"/>
-      <c r="B20" s="13"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="15"/>
-      <c r="I20" s="6"/>
+    <row r="20" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="7"/>
+      <c r="B20" s="15"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="7"/>
     </row>
     <row r="21" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A21" s="2"/>
@@ -847,11 +847,11 @@
       <c r="A24" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B24" s="17" t="s">
+      <c r="B24" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C24" s="17"/>
-      <c r="D24" s="17"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
       <c r="E24" s="8" t="s">
         <v>16</v>
       </c>
@@ -864,27 +864,27 @@
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A25" s="6"/>
-      <c r="B25" s="13"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="15"/>
-      <c r="I25" s="6"/>
-    </row>
-    <row r="26" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A26" s="6"/>
-      <c r="B26" s="13"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="15"/>
-      <c r="G26" s="13"/>
-      <c r="H26" s="15"/>
-      <c r="I26" s="6"/>
+    <row r="25" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="19"/>
+      <c r="B25" s="19"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="19"/>
+      <c r="H25" s="19"/>
+      <c r="I25" s="19"/>
+    </row>
+    <row r="26" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="18"/>
+      <c r="B26" s="18"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="18"/>
+      <c r="H26" s="18"/>
+      <c r="I26" s="18"/>
     </row>
     <row r="27" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A27" s="2"/>
@@ -909,9 +909,7 @@
       <c r="I28" s="2"/>
     </row>
     <row r="29" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
-        <v>21</v>
-      </c>
+      <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -934,106 +932,90 @@
     </row>
     <row r="31" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A31" s="2"/>
-      <c r="B31" s="10"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="10"/>
-      <c r="H31" s="10"/>
+      <c r="B31" s="20"/>
+      <c r="C31" s="20"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="20"/>
+      <c r="H31" s="20"/>
       <c r="I31" s="2"/>
     </row>
     <row r="32" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A32" s="2"/>
-      <c r="B32" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="C32" s="12"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="H32" s="12"/>
+      <c r="B32" s="20"/>
+      <c r="C32" s="20"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="20"/>
+      <c r="H32" s="20"/>
       <c r="I32" s="2"/>
     </row>
     <row r="33" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A33" s="2"/>
-      <c r="B33" s="10"/>
-      <c r="C33" s="10"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="10"/>
-      <c r="H33" s="10"/>
+      <c r="B33" s="20"/>
+      <c r="C33" s="20"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="20"/>
+      <c r="H33" s="20"/>
       <c r="I33" s="2"/>
     </row>
     <row r="34" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A34" s="2"/>
-      <c r="B34" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="C34" s="12"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="H34" s="12"/>
+      <c r="B34" s="20"/>
+      <c r="C34" s="20"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="20"/>
+      <c r="H34" s="20"/>
       <c r="I34" s="2"/>
     </row>
     <row r="35" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A35" s="2"/>
-      <c r="B35" s="10"/>
-      <c r="C35" s="10"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="10"/>
-      <c r="H35" s="10"/>
+      <c r="B35" s="20"/>
+      <c r="C35" s="20"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="20"/>
+      <c r="H35" s="20"/>
       <c r="I35" s="2"/>
     </row>
     <row r="36" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A36" s="2"/>
-      <c r="B36" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="C36" s="12"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="H36" s="12"/>
+      <c r="B36" s="20"/>
+      <c r="C36" s="20"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="20"/>
+      <c r="H36" s="20"/>
       <c r="I36" s="2"/>
     </row>
     <row r="37" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A37" s="2"/>
-      <c r="B37" s="10"/>
-      <c r="C37" s="10"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
-      <c r="G37" s="10"/>
-      <c r="H37" s="10"/>
+      <c r="B37" s="20"/>
+      <c r="C37" s="20"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="20"/>
+      <c r="H37" s="20"/>
       <c r="I37" s="2"/>
     </row>
     <row r="38" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A38" s="2"/>
-      <c r="B38" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="C38" s="12"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
-      <c r="G38" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="H38" s="12"/>
+      <c r="B38" s="20"/>
+      <c r="C38" s="20"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="20"/>
+      <c r="H38" s="20"/>
       <c r="I38" s="2"/>
     </row>
     <row r="39" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -1158,14 +1140,10 @@
       <c r="I49" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="47">
+  <mergeCells count="25">
     <mergeCell ref="B20:D20"/>
     <mergeCell ref="E20:F20"/>
     <mergeCell ref="G20:H20"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="B26:D26"/>
     <mergeCell ref="A8:I8"/>
     <mergeCell ref="A9:I9"/>
     <mergeCell ref="A7:I7"/>
@@ -1174,29 +1152,11 @@
     <mergeCell ref="B24:D24"/>
     <mergeCell ref="E24:F24"/>
     <mergeCell ref="G24:H24"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="G26:H26"/>
     <mergeCell ref="B15:D15"/>
     <mergeCell ref="B16:D16"/>
     <mergeCell ref="A18:H18"/>
     <mergeCell ref="B19:D19"/>
     <mergeCell ref="E19:F19"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B31:C31"/>
     <mergeCell ref="G19:H19"/>
     <mergeCell ref="A12:D12"/>
     <mergeCell ref="B13:D13"/>

--- a/backend/docs/14-23.xlsx
+++ b/backend/docs/14-23.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WEB\sklad\backend\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\web\test_sklad\backend\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -200,13 +200,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -217,43 +214,47 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -536,8 +537,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I49"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A21" zoomScale="85" zoomScaleNormal="100" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A4" zoomScale="85" zoomScaleNormal="100" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -551,43 +552,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="6"/>
+      <c r="A1" s="5"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
     </row>
     <row r="2" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="6"/>
+      <c r="A2" s="5"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
     </row>
     <row r="3" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="6"/>
+      <c r="A3" s="5"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
-      <c r="G3" s="11" t="s">
+      <c r="G3" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
     </row>
     <row r="4" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
@@ -596,11 +597,11 @@
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
-      <c r="G4" s="11" t="s">
+      <c r="G4" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
     </row>
     <row r="5" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
@@ -625,43 +626,43 @@
       <c r="I6" s="2"/>
     </row>
     <row r="7" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
     </row>
     <row r="8" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
     </row>
     <row r="9" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
     </row>
     <row r="10" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
@@ -675,25 +676,25 @@
       <c r="I10" s="2"/>
     </row>
     <row r="11" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
       <c r="I11" s="2"/>
     </row>
     <row r="12" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
@@ -701,55 +702,55 @@
       <c r="I12" s="2"/>
     </row>
     <row r="13" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
       <c r="I13" s="2"/>
     </row>
     <row r="14" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
+      <c r="B14" s="21"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
       <c r="I14" s="2"/>
     </row>
     <row r="15" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
       <c r="I15" s="2"/>
     </row>
     <row r="16" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="14"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
+      <c r="B16" s="21"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
       <c r="I16" s="2"/>
     </row>
     <row r="17" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -764,49 +765,49 @@
       <c r="I17" s="2"/>
     </row>
     <row r="18" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A18" s="9" t="s">
+      <c r="A18" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
       <c r="I18" s="2"/>
     </row>
     <row r="19" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="13" t="s">
+      <c r="B19" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="8" t="s">
+      <c r="C19" s="16"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8" t="s">
+      <c r="F19" s="17"/>
+      <c r="G19" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="H19" s="8"/>
-      <c r="I19" s="5" t="s">
+      <c r="H19" s="17"/>
+      <c r="I19" s="4" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="7"/>
-      <c r="B20" s="15"/>
-      <c r="C20" s="16"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="15"/>
-      <c r="H20" s="17"/>
-      <c r="I20" s="7"/>
+      <c r="A20" s="6"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="6"/>
     </row>
     <row r="21" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A21" s="2"/>
@@ -831,60 +832,60 @@
       <c r="I22" s="2"/>
     </row>
     <row r="23" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A23" s="9" t="s">
+      <c r="A23" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="B23" s="9"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
+      <c r="B23" s="15"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="15"/>
       <c r="I23" s="2"/>
     </row>
     <row r="24" spans="1:9" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
+      <c r="A24" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B24" s="13" t="s">
+      <c r="B24" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="8" t="s">
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8" t="s">
+      <c r="F24" s="17"/>
+      <c r="G24" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="H24" s="8"/>
-      <c r="I24" s="5" t="s">
+      <c r="H24" s="17"/>
+      <c r="I24" s="4" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="19"/>
-      <c r="B25" s="19"/>
-      <c r="C25" s="19"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="19"/>
-      <c r="F25" s="19"/>
-      <c r="G25" s="19"/>
-      <c r="H25" s="19"/>
-      <c r="I25" s="19"/>
+      <c r="A25" s="8"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
     </row>
     <row r="26" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="18"/>
-      <c r="B26" s="18"/>
-      <c r="C26" s="18"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="18"/>
-      <c r="G26" s="18"/>
-      <c r="H26" s="18"/>
-      <c r="I26" s="18"/>
+      <c r="A26" s="7"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
     </row>
     <row r="27" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A27" s="2"/>
@@ -932,90 +933,90 @@
     </row>
     <row r="31" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A31" s="2"/>
-      <c r="B31" s="20"/>
-      <c r="C31" s="20"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="20"/>
-      <c r="H31" s="20"/>
+      <c r="B31" s="9"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="9"/>
       <c r="I31" s="2"/>
     </row>
     <row r="32" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A32" s="2"/>
-      <c r="B32" s="20"/>
-      <c r="C32" s="20"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="20"/>
-      <c r="H32" s="20"/>
+      <c r="B32" s="9"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="9"/>
       <c r="I32" s="2"/>
     </row>
     <row r="33" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A33" s="2"/>
-      <c r="B33" s="20"/>
-      <c r="C33" s="20"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="6"/>
-      <c r="F33" s="6"/>
-      <c r="G33" s="20"/>
-      <c r="H33" s="20"/>
+      <c r="B33" s="9"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="9"/>
       <c r="I33" s="2"/>
     </row>
     <row r="34" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A34" s="2"/>
-      <c r="B34" s="20"/>
-      <c r="C34" s="20"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="6"/>
-      <c r="F34" s="6"/>
-      <c r="G34" s="20"/>
-      <c r="H34" s="20"/>
+      <c r="B34" s="9"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="9"/>
       <c r="I34" s="2"/>
     </row>
     <row r="35" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A35" s="2"/>
-      <c r="B35" s="20"/>
-      <c r="C35" s="20"/>
-      <c r="D35" s="6"/>
-      <c r="E35" s="6"/>
-      <c r="F35" s="6"/>
-      <c r="G35" s="20"/>
-      <c r="H35" s="20"/>
+      <c r="B35" s="9"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="9"/>
       <c r="I35" s="2"/>
     </row>
     <row r="36" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A36" s="2"/>
-      <c r="B36" s="20"/>
-      <c r="C36" s="20"/>
-      <c r="D36" s="6"/>
-      <c r="E36" s="6"/>
-      <c r="F36" s="6"/>
-      <c r="G36" s="20"/>
-      <c r="H36" s="20"/>
+      <c r="B36" s="9"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="9"/>
       <c r="I36" s="2"/>
     </row>
     <row r="37" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A37" s="2"/>
-      <c r="B37" s="20"/>
-      <c r="C37" s="20"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="20"/>
-      <c r="H37" s="20"/>
+      <c r="B37" s="9"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="9"/>
+      <c r="H37" s="9"/>
       <c r="I37" s="2"/>
     </row>
     <row r="38" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A38" s="2"/>
-      <c r="B38" s="20"/>
-      <c r="C38" s="20"/>
-      <c r="D38" s="6"/>
-      <c r="E38" s="6"/>
-      <c r="F38" s="6"/>
-      <c r="G38" s="20"/>
-      <c r="H38" s="20"/>
+      <c r="B38" s="9"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="9"/>
+      <c r="H38" s="9"/>
       <c r="I38" s="2"/>
     </row>
     <row r="39" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -1140,32 +1141,28 @@
       <c r="I49" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="25">
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="A8:I8"/>
-    <mergeCell ref="A9:I9"/>
+  <mergeCells count="21">
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="A11:E11"/>
     <mergeCell ref="A7:I7"/>
     <mergeCell ref="F11:H11"/>
     <mergeCell ref="A23:H23"/>
     <mergeCell ref="B24:D24"/>
     <mergeCell ref="E24:F24"/>
     <mergeCell ref="G24:H24"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B16:D16"/>
     <mergeCell ref="A18:H18"/>
     <mergeCell ref="B19:D19"/>
     <mergeCell ref="E19:F19"/>
     <mergeCell ref="G19:H19"/>
     <mergeCell ref="A12:D12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="G1:I1"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="A8:I8"/>
+    <mergeCell ref="A9:I9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
